--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>44.474211952163</v>
+        <v>8.038446</v>
       </c>
       <c r="N2">
-        <v>44.474211952163</v>
+        <v>24.115338</v>
       </c>
       <c r="O2">
-        <v>0.7769644438350298</v>
+        <v>0.1223314651384763</v>
       </c>
       <c r="P2">
-        <v>0.7769644438350298</v>
+        <v>0.1223314651384763</v>
       </c>
       <c r="Q2">
-        <v>8369.320924777709</v>
+        <v>1638.087907213108</v>
       </c>
       <c r="R2">
-        <v>8369.320924777709</v>
+        <v>14742.79116491797</v>
       </c>
       <c r="S2">
-        <v>0.5057385331469372</v>
+        <v>0.0815623952886106</v>
       </c>
       <c r="T2">
-        <v>0.5057385331469372</v>
+        <v>0.08156239528861062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7667754637374</v>
+        <v>44.50790266666667</v>
       </c>
       <c r="N3">
-        <v>12.7667754637374</v>
+        <v>133.523708</v>
       </c>
       <c r="O3">
-        <v>0.2230355561649701</v>
+        <v>0.6773345175739228</v>
       </c>
       <c r="P3">
-        <v>0.2230355561649701</v>
+        <v>0.6773345175739228</v>
       </c>
       <c r="Q3">
-        <v>2402.498804150243</v>
+        <v>9069.894496235305</v>
       </c>
       <c r="R3">
-        <v>2402.498804150243</v>
+        <v>81629.05046611775</v>
       </c>
       <c r="S3">
-        <v>0.1451773963525585</v>
+        <v>0.4516011118026634</v>
       </c>
       <c r="T3">
-        <v>0.1451773963525585</v>
+        <v>0.4516011118026635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.7965473472026</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>62.7965473472026</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.217209445152696</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.217209445152696</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.474211952163</v>
+        <v>13.16402266666667</v>
       </c>
       <c r="N4">
-        <v>44.474211952163</v>
+        <v>39.492068</v>
       </c>
       <c r="O4">
-        <v>0.7769644438350298</v>
+        <v>0.2003340172876008</v>
       </c>
       <c r="P4">
-        <v>0.7769644438350298</v>
+        <v>0.2003340172876008</v>
       </c>
       <c r="Q4">
-        <v>2792.826956583528</v>
+        <v>2682.586452723066</v>
       </c>
       <c r="R4">
-        <v>2792.826956583528</v>
+        <v>24143.27807450759</v>
       </c>
       <c r="S4">
-        <v>0.1687640157487799</v>
+        <v>0.1335692521075462</v>
       </c>
       <c r="T4">
-        <v>0.1687640157487799</v>
+        <v>0.1335692521075463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>12.7667754637374</v>
+        <v>8.038446</v>
       </c>
       <c r="N5">
-        <v>12.7667754637374</v>
+        <v>24.115338</v>
       </c>
       <c r="O5">
-        <v>0.2230355561649701</v>
+        <v>0.1223314651384763</v>
       </c>
       <c r="P5">
-        <v>0.2230355561649701</v>
+        <v>0.1223314651384763</v>
       </c>
       <c r="Q5">
-        <v>801.70941987969</v>
+        <v>507.552217764176</v>
       </c>
       <c r="R5">
-        <v>801.70941987969</v>
+        <v>4567.969959877584</v>
       </c>
       <c r="S5">
-        <v>0.04844542940391612</v>
+        <v>0.02527164411177544</v>
       </c>
       <c r="T5">
-        <v>0.04844542940391612</v>
+        <v>0.02527164411177544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.125741487561</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>38.125741487561</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.474211952163</v>
+        <v>44.50790266666667</v>
       </c>
       <c r="N6">
-        <v>44.474211952163</v>
+        <v>133.523708</v>
       </c>
       <c r="O6">
-        <v>0.7769644438350298</v>
+        <v>0.6773345175739228</v>
       </c>
       <c r="P6">
-        <v>0.7769644438350298</v>
+        <v>0.6773345175739228</v>
       </c>
       <c r="Q6">
-        <v>1695.612307751162</v>
+        <v>2810.255204363972</v>
       </c>
       <c r="R6">
-        <v>1695.612307751162</v>
+        <v>25292.29683927574</v>
       </c>
       <c r="S6">
-        <v>0.1024618949393128</v>
+        <v>0.1399260350014842</v>
       </c>
       <c r="T6">
-        <v>0.1024618949393128</v>
+        <v>0.1399260350014843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.125741487561</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>38.125741487561</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.7667754637374</v>
+        <v>13.16402266666667</v>
       </c>
       <c r="N7">
-        <v>12.7667754637374</v>
+        <v>39.492068</v>
       </c>
       <c r="O7">
-        <v>0.2230355561649701</v>
+        <v>0.2003340172876008</v>
       </c>
       <c r="P7">
-        <v>0.2230355561649701</v>
+        <v>0.2003340172876008</v>
       </c>
       <c r="Q7">
-        <v>486.7427809601888</v>
+        <v>831.1841491706916</v>
       </c>
       <c r="R7">
-        <v>486.7427809601888</v>
+        <v>7480.657342536224</v>
       </c>
       <c r="S7">
-        <v>0.02941273040849549</v>
+        <v>0.04138567279189847</v>
       </c>
       <c r="T7">
-        <v>0.02941273040849549</v>
+        <v>0.04138567279189848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>38.719942</v>
+      </c>
+      <c r="H8">
+        <v>116.159826</v>
+      </c>
+      <c r="I8">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J8">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>8.038446</v>
+      </c>
+      <c r="N8">
+        <v>24.115338</v>
+      </c>
+      <c r="O8">
+        <v>0.1223314651384763</v>
+      </c>
+      <c r="P8">
+        <v>0.1223314651384763</v>
+      </c>
+      <c r="Q8">
+        <v>311.248162890132</v>
+      </c>
+      <c r="R8">
+        <v>2801.233466011188</v>
+      </c>
+      <c r="S8">
+        <v>0.01549742573809025</v>
+      </c>
+      <c r="T8">
+        <v>0.01549742573809025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38.719942</v>
+      </c>
+      <c r="H9">
+        <v>116.159826</v>
+      </c>
+      <c r="I9">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J9">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>44.50790266666667</v>
+      </c>
+      <c r="N9">
+        <v>133.523708</v>
+      </c>
+      <c r="O9">
+        <v>0.6773345175739228</v>
+      </c>
+      <c r="P9">
+        <v>0.6773345175739228</v>
+      </c>
+      <c r="Q9">
+        <v>1723.343409794978</v>
+      </c>
+      <c r="R9">
+        <v>15510.09068815481</v>
+      </c>
+      <c r="S9">
+        <v>0.08580737076977508</v>
+      </c>
+      <c r="T9">
+        <v>0.08580737076977511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>38.719942</v>
+      </c>
+      <c r="H10">
+        <v>116.159826</v>
+      </c>
+      <c r="I10">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J10">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.16402266666667</v>
+      </c>
+      <c r="N10">
+        <v>39.492068</v>
+      </c>
+      <c r="O10">
+        <v>0.2003340172876008</v>
+      </c>
+      <c r="P10">
+        <v>0.2003340172876008</v>
+      </c>
+      <c r="Q10">
+        <v>509.7101941400186</v>
+      </c>
+      <c r="R10">
+        <v>4587.391747260168</v>
+      </c>
+      <c r="S10">
+        <v>0.02537909238815604</v>
+      </c>
+      <c r="T10">
+        <v>0.02537909238815605</v>
       </c>
     </row>
   </sheetData>
